--- a/DPI_Table_Audit/PrlTrnSetEarnDedMonthWIseHeadValue_14-10-2024.xlsx
+++ b/DPI_Table_Audit/PrlTrnSetEarnDedMonthWIseHeadValue_14-10-2024.xlsx
@@ -170,27 +170,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -514,7 +494,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
